--- a/scheme/Sipaj/issues_metadados_sipaj.xlsx
+++ b/scheme/Sipaj/issues_metadados_sipaj.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="0_SCHEMA_METADATA" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1_ISSUES" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2_SCHEME_MEASURES" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3_MODEL_MEASURES" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="4_MODEL_METRICS" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SCHEME_MEASURES" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="METADATA_ISSUES" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="METADATA_MEASURES" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="METADATA_METRICS" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22984,7 +22984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22995,546 +22995,94 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>rule</t>
+          <t>Indicator</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>desc</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>owner</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>column</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>constraint_name</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>length</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>limit</t>
+          <t>Value</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD06</t>
+          <t>MQMS01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables with plural names</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SIPAJ</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>PROTOCOLO_INTENCOES</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Total number of tables</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMD06</t>
+          <t>MQMS02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of tables with plural names</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SIPAJ</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SOL_CRED_RESS_INFORMA_FIS</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>Total number of columns</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMD10</t>
+          <t>MQMS03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SIPAJ</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ANDAMENTO</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>STA_PROCESSO</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+          <t>Total number of primary key</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMD10</t>
+          <t>MQMS04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SIPAJ</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DOCUMENTO</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>DSC_OBSERVACAO_CASSACAO</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+          <t>Total number of foreign key</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMD10</t>
+          <t>MQMS05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SIPAJ</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>INFORMACAO_FISCAL</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>VLR_OPR_INTERESTADUAL</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SIPAJ</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>PROC_ANEXO</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>TXT_PROC_ANEXO</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>SIPAJ</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>PROC_ANEXO_TMP</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>TXT_PROC_ANEXO</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>SIPAJ</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>PROC_DOCUMENTO</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>DSC_OBSERVACAO</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SIPAJ</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>PROC_DOCUMENTO_PENDENCIA</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SEQ_PROC_DOCUMENTO</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SIPAJ</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>PROC_DOCUMENTO_PENDENCIA</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>STA_PENDENCIA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SIPAJ</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>PROC_DOCUMENTO_20190212</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SEQ_PROC_DOCUMENTO</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>SIPAJ</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>PROC_DOCUMENTO_20190212</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NUM_PROC_DOCUMENTO</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>SIPAJ</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>PROC_DOCUMENTO_20190212</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>DAT_INCLUSAO</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>SIPAJ</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>PROC_DOCUMENTO_20190212</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>DSC_OBSERVACAO</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>SIPAJ</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>PROTOCOLO_INTENCOES</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>SEQ_PROC_DOCUMENTO</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>SIPAJ</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>RECURSO</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>DSC_TEOR_DESPACHO</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>SIPAJ</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>RECURSO</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>DSC_OBSERVACAO</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+          <t>Total number of unique key</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23547,7 +23095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23558,94 +23106,546 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Indicator</t>
+          <t>rule</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>desc</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>owner</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>column</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>constraint_name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>length</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>limit</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD01</t>
+          <t>MQME10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>73</v>
-      </c>
+          <t>Total number of tables with plural names</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SIPAJ</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PROTOCOLO_INTENCOES</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMD02</t>
+          <t>MQME10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of columns</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>362</v>
-      </c>
+          <t>Total number of tables with plural names</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SIPAJ</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SOL_CRED_RESS_INFORMA_FIS</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMD03</t>
+          <t>MQME01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Total number of primary key</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>89</v>
-      </c>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SIPAJ</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ANDAMENTO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>STA_PROCESSO</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMD04</t>
+          <t>MQME01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Total number of foreign key</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>107</v>
-      </c>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SIPAJ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DOCUMENTO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>DSC_OBSERVACAO_CASSACAO</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMD05</t>
+          <t>MQME01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Total number of unique key</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SIPAJ</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>INFORMACAO_FISCAL</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>VLR_OPR_INTERESTADUAL</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SIPAJ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PROC_ANEXO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>TXT_PROC_ANEXO</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SIPAJ</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PROC_ANEXO_TMP</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>TXT_PROC_ANEXO</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SIPAJ</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PROC_DOCUMENTO</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>DSC_OBSERVACAO</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SIPAJ</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PROC_DOCUMENTO_PENDENCIA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SEQ_PROC_DOCUMENTO</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SIPAJ</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PROC_DOCUMENTO_PENDENCIA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>STA_PENDENCIA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SIPAJ</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PROC_DOCUMENTO_20190212</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SEQ_PROC_DOCUMENTO</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SIPAJ</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PROC_DOCUMENTO_20190212</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NUM_PROC_DOCUMENTO</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SIPAJ</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>PROC_DOCUMENTO_20190212</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>DAT_INCLUSAO</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SIPAJ</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>PROC_DOCUMENTO_20190212</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>DSC_OBSERVACAO</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SIPAJ</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>PROTOCOLO_INTENCOES</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SEQ_PROC_DOCUMENTO</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SIPAJ</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>RECURSO</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>DSC_TEOR_DESPACHO</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SIPAJ</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>RECURSO</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>DSC_OBSERVACAO</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23658,7 +23658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23686,31 +23686,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD06</t>
+          <t>MQME00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables with plural names</t>
+          <t>Total number of columns</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMD10</t>
+          <t>MQMEA1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of tables with column names without comments</t>
+          <t>Total number of length-required columns</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MQMEA2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total number of NUMBER columns</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -23724,7 +23739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23752,29 +23767,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IQMD01</t>
+          <t>IQME01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Table names in singular</t>
+          <t>Columns with comments</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>97.26%</t>
+          <t>95.86%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IQMD02</t>
+          <t>IQME02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Table names with recommended size</t>
+          <t>Columns with data type</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -23786,12 +23801,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IQMD03</t>
+          <t>IQME03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Table columns with correct prefixes</t>
+          <t>Length-required columns with data length</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -23803,12 +23818,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IQMD04</t>
+          <t>IQME04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Table columns with recommend size</t>
+          <t>NUMBER columns with valid scale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -23820,29 +23835,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IQMD05</t>
+          <t>IQME05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Table columns with comments</t>
+          <t>Columns with valid num_distinct</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>95.86%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IQMD06</t>
+          <t>IQME06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Table with standard PK prefixes</t>
+          <t>Columns with valid num_nulls</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -23854,34 +23869,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IQMD07</t>
+          <t>IQME07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Table with standard FK prefixes</t>
+          <t>Columns with valid density</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>100.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>IQMD08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Table with standard UK prefixes</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>

--- a/scheme/Sipaj/issues_metadados_sipaj.xlsx
+++ b/scheme/Sipaj/issues_metadados_sipaj.xlsx
@@ -23012,7 +23012,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMS01</t>
+          <t>MQME001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -23027,7 +23027,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMS02</t>
+          <t>MQME002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -23042,7 +23042,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMS03</t>
+          <t>MQME003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -23057,7 +23057,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMS04</t>
+          <t>MQME004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -23072,7 +23072,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMS05</t>
+          <t>MQME005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -23148,7 +23148,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQME10</t>
+          <t>MQME012</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -23174,7 +23174,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQME10</t>
+          <t>MQME012</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -23200,7 +23200,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -23230,7 +23230,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -23260,7 +23260,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -23290,7 +23290,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -23320,7 +23320,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -23350,7 +23350,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -23380,7 +23380,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -23410,7 +23410,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -23440,7 +23440,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -23470,7 +23470,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -23500,7 +23500,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -23530,7 +23530,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -23560,7 +23560,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -23590,7 +23590,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -23620,7 +23620,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -23658,7 +23658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23686,45 +23686,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQME00</t>
+          <t>MQME006</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of columns</t>
+          <t>Total number of length-required columns</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>362</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMEA1</t>
+          <t>MQME007</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of length-required columns</t>
+          <t>Total number of NUMBER columns</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MQMEA2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Total number of NUMBER columns</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
         <v>235</v>
       </c>
     </row>
@@ -23739,7 +23724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23767,29 +23752,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IQME01</t>
+          <t>MQID001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Columns with comments</t>
+          <t>Table names in singular</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>95.86%</t>
+          <t>97.26%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IQME02</t>
+          <t>MQID002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Columns with data type</t>
+          <t>Table with recommended name length</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -23801,12 +23786,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IQME03</t>
+          <t>MQID003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Length-required columns with data length</t>
+          <t>Columns with correct prefixes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -23818,12 +23803,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IQME04</t>
+          <t>MQID004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NUMBER columns with valid scale</t>
+          <t>Columns with recommended name size</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -23835,29 +23820,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IQME05</t>
+          <t>MQID005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Columns with valid num_distinct</t>
+          <t>Columns with comments</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>95.86%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IQME06</t>
+          <t>MQID006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Columns with valid num_nulls</t>
+          <t>Table with standard PK prefixes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -23869,15 +23854,83 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IQME07</t>
+          <t>MQID007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Columns with valid density</t>
+          <t>Table with standard FK prefixes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MQID008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Table with standard UK prefixes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MQID009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NUMBER columns with valid scale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MQID010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Columns with valid num_distinct</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MQID011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Columns with valid num_nulls</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
